--- a/public/excel/Course_Excel.xlsx
+++ b/public/excel/Course_Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\openelective\open_elective\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\OpenElectiveNew\OpenElective\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Campus</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Open_To_All_Programs</t>
+  </si>
+  <si>
+    <t>Min_Capacity_Per_Batch</t>
   </si>
 </sst>
 </file>
@@ -359,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,9 +373,10 @@
     <col min="1" max="2" width="18.28515625" customWidth="1"/>
     <col min="4" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -390,6 +394,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/Course_Excel.xlsx
+++ b/public/excel/Course_Excel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\OpenElectiveNew\OpenElective\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenElectiveNew\OpenElective\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3363519-74AA-4A5F-8FE2-B93CAE079590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9345"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,22 +362,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="1" max="2" width="18.33203125" customWidth="1"/>
+    <col min="4" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -401,10 +402,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"MPSTME(MUM),MPSTME(SHIR)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/excel/Course_Excel.xlsx
+++ b/public/excel/Course_Excel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenElectiveNew\OpenElective\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\OpenElectiveNew\OpenElective\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3363519-74AA-4A5F-8FE2-B93CAE079590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,22 +361,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.33203125" customWidth="1"/>
-    <col min="4" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -402,10 +401,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"MPSTME(MUM),MPSTME(SHIR)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/excel/Course_Excel.xlsx
+++ b/public/excel/Course_Excel.xlsx
@@ -365,7 +365,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +402,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"MPSTME(MUM),MPSTME(SHIR)"</formula1>
+      <formula1>"MPSTME(MUMBAI),MPSTME(SHIR)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"Yes,No"</formula1>

--- a/public/excel/Course_Excel.xlsx
+++ b/public/excel/Course_Excel.xlsx
@@ -402,7 +402,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"MPSTME(MUMBAI),MPSTME(SHIR)"</formula1>
+      <formula1>"MPSTME (MUMBAI),MPSTME (SHIR)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"Yes,No"</formula1>
